--- a/biology/Mycologie/Penicillium_roqueforti/Penicillium_roqueforti.xlsx
+++ b/biology/Mycologie/Penicillium_roqueforti/Penicillium_roqueforti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Penicillium roqueforti est une espèce de champignons ascomycètes saprophytes, très répandue dans la nature. Son principal usage fermier, artisanal ou industriel est la transformation laitière attachée aux fromages à pâte persillée comme le roquefort, la fourme d'Ambert, la fourme de Montbrison, le bleu d'Auvergne, le bleu des Causses, le bleu du Vercors-Sassenage, le bleu d'Élisabeth, le Blue Stilton, etc. Elle est aussi utilisée pour la production d’alternatives végétales au fromage tels que le ques'eso forte azul de La Carleta.
 </t>
@@ -511,10 +523,12 @@
           <t>Domestication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La domestication par l'activité fromagère a permis de sélectionner des souches de meilleures apparence et qualités organoleptiques mais a eu pour effet une diminution drastique de leur diversité génétique avec risque de dégénérescence[1].
-Les bleus de Termignon hébergent une population distincte de Penicillium roqueforti. Ces fromages « figurent parmi les rares où la moisissure n’est pas inoculée par les producteurs : elle les colonise spontanément depuis l’environnement »[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La domestication par l'activité fromagère a permis de sélectionner des souches de meilleures apparence et qualités organoleptiques mais a eu pour effet une diminution drastique de leur diversité génétique avec risque de dégénérescence.
+Les bleus de Termignon hébergent une population distincte de Penicillium roqueforti. Ces fromages « figurent parmi les rares où la moisissure n’est pas inoculée par les producteurs : elle les colonise spontanément depuis l’environnement »,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Penicillium glaucum
 Penicillium conservandi Novobr.
